--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1441.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1441.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.842996704528014</v>
+        <v>1.433578968048096</v>
       </c>
       <c r="B1">
-        <v>2.21748576544086</v>
+        <v>3.567338943481445</v>
       </c>
       <c r="C1">
-        <v>2.984897820828141</v>
+        <v>5.327566146850586</v>
       </c>
       <c r="D1">
-        <v>1.772830749422755</v>
+        <v>1.730585813522339</v>
       </c>
       <c r="E1">
-        <v>0.6069272228584656</v>
+        <v>0.9697878956794739</v>
       </c>
     </row>
   </sheetData>
